--- a/junctions_threshold.xlsx
+++ b/junctions_threshold.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhoumengjie/Desktop/route-finder/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6BAE7D8-F6CA-AE46-B12B-4E0C441C7496}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39C5CB8E-696F-5640-AD9A-F79D96F6FE0D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14400" xr2:uid="{37E2BAAD-4C3E-E44F-8461-9F8E69AAC626}"/>
+    <workbookView xWindow="2620" yWindow="480" windowWidth="25600" windowHeight="14400" xr2:uid="{37E2BAAD-4C3E-E44F-8461-9F8E69AAC626}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -105,10 +105,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -10138,13 +10138,13 @@
       <xdr:col>18</xdr:col>
       <xdr:colOff>819150</xdr:colOff>
       <xdr:row>55</xdr:row>
-      <xdr:rowOff>184150</xdr:rowOff>
+      <xdr:rowOff>196850</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
       <xdr:colOff>438150</xdr:colOff>
       <xdr:row>69</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -10543,35 +10543,35 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85E7D62C-FA5F-464D-B034-1D849607618F}">
   <dimension ref="A1:S91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="Q11" sqref="Q11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="K1" s="4">
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="K1" s="5">
         <v>0.5</v>
       </c>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
-      <c r="O1" s="5"/>
-      <c r="P1" s="5"/>
-      <c r="Q1" s="5"/>
-      <c r="R1" s="5"/>
-      <c r="S1" s="5"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4"/>
+      <c r="O1" s="4"/>
+      <c r="P1" s="4"/>
+      <c r="Q1" s="4"/>
+      <c r="R1" s="4"/>
+      <c r="S1" s="4"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
@@ -11000,17 +11000,17 @@
       <c r="K11" s="2"/>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A13" s="1"/>
@@ -11101,17 +11101,17 @@
         <v>0.98399999999999999</v>
       </c>
       <c r="J15" s="2"/>
-      <c r="K15" s="4">
+      <c r="K15" s="5">
         <v>0.6</v>
       </c>
-      <c r="L15" s="5"/>
-      <c r="M15" s="5"/>
-      <c r="N15" s="5"/>
-      <c r="O15" s="5"/>
-      <c r="P15" s="5"/>
-      <c r="Q15" s="5"/>
-      <c r="R15" s="5"/>
-      <c r="S15" s="5"/>
+      <c r="L15" s="4"/>
+      <c r="M15" s="4"/>
+      <c r="N15" s="4"/>
+      <c r="O15" s="4"/>
+      <c r="P15" s="4"/>
+      <c r="Q15" s="4"/>
+      <c r="R15" s="4"/>
+      <c r="S15" s="4"/>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
@@ -11449,17 +11449,17 @@
       <c r="K22" s="2"/>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A23" s="5" t="s">
+      <c r="A23" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B23" s="5"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="5"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4"/>
       <c r="K23" s="2"/>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.2">
@@ -11643,17 +11643,17 @@
         <v>0.99</v>
       </c>
       <c r="J29" s="2"/>
-      <c r="K29" s="4">
+      <c r="K29" s="5">
         <v>0.7</v>
       </c>
-      <c r="L29" s="5"/>
-      <c r="M29" s="5"/>
-      <c r="N29" s="5"/>
-      <c r="O29" s="5"/>
-      <c r="P29" s="5"/>
-      <c r="Q29" s="5"/>
-      <c r="R29" s="5"/>
-      <c r="S29" s="5"/>
+      <c r="L29" s="4"/>
+      <c r="M29" s="4"/>
+      <c r="N29" s="4"/>
+      <c r="O29" s="4"/>
+      <c r="P29" s="4"/>
+      <c r="Q29" s="4"/>
+      <c r="R29" s="4"/>
+      <c r="S29" s="4"/>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
@@ -11826,17 +11826,17 @@
       </c>
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A34" s="5" t="s">
+      <c r="A34" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B34" s="5"/>
-      <c r="C34" s="5"/>
-      <c r="D34" s="5"/>
-      <c r="E34" s="5"/>
-      <c r="F34" s="5"/>
-      <c r="G34" s="5"/>
-      <c r="H34" s="5"/>
-      <c r="I34" s="5"/>
+      <c r="B34" s="4"/>
+      <c r="C34" s="4"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="4"/>
+      <c r="G34" s="4"/>
+      <c r="H34" s="4"/>
+      <c r="I34" s="4"/>
       <c r="K34" s="1" t="s">
         <v>3</v>
       </c>
@@ -12137,17 +12137,17 @@
       <c r="K42" s="2"/>
     </row>
     <row r="43" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="K43" s="4">
+      <c r="K43" s="5">
         <v>0.75</v>
       </c>
-      <c r="L43" s="5"/>
-      <c r="M43" s="5"/>
-      <c r="N43" s="5"/>
-      <c r="O43" s="5"/>
-      <c r="P43" s="5"/>
-      <c r="Q43" s="5"/>
-      <c r="R43" s="5"/>
-      <c r="S43" s="5"/>
+      <c r="L43" s="4"/>
+      <c r="M43" s="4"/>
+      <c r="N43" s="4"/>
+      <c r="O43" s="4"/>
+      <c r="P43" s="4"/>
+      <c r="Q43" s="4"/>
+      <c r="R43" s="4"/>
+      <c r="S43" s="4"/>
     </row>
     <row r="44" spans="1:19" x14ac:dyDescent="0.2">
       <c r="K44" s="1"/>
@@ -12177,17 +12177,17 @@
       </c>
     </row>
     <row r="45" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A45" s="5" t="s">
+      <c r="A45" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B45" s="5"/>
-      <c r="C45" s="5"/>
-      <c r="D45" s="5"/>
-      <c r="E45" s="5"/>
-      <c r="F45" s="5"/>
-      <c r="G45" s="5"/>
-      <c r="H45" s="5"/>
-      <c r="I45" s="5"/>
+      <c r="B45" s="4"/>
+      <c r="C45" s="4"/>
+      <c r="D45" s="4"/>
+      <c r="E45" s="4"/>
+      <c r="F45" s="4"/>
+      <c r="G45" s="4"/>
+      <c r="H45" s="4"/>
+      <c r="I45" s="4"/>
       <c r="K45" s="1" t="s">
         <v>0</v>
       </c>
@@ -12573,17 +12573,17 @@
       <c r="K56" s="2"/>
     </row>
     <row r="57" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="K57" s="4">
+      <c r="K57" s="5">
         <v>0.8</v>
       </c>
-      <c r="L57" s="5"/>
-      <c r="M57" s="5"/>
-      <c r="N57" s="5"/>
-      <c r="O57" s="5"/>
-      <c r="P57" s="5"/>
-      <c r="Q57" s="5"/>
-      <c r="R57" s="5"/>
-      <c r="S57" s="5"/>
+      <c r="L57" s="4"/>
+      <c r="M57" s="4"/>
+      <c r="N57" s="4"/>
+      <c r="O57" s="4"/>
+      <c r="P57" s="4"/>
+      <c r="Q57" s="4"/>
+      <c r="R57" s="4"/>
+      <c r="S57" s="4"/>
     </row>
     <row r="58" spans="1:19" x14ac:dyDescent="0.2">
       <c r="K58" s="1"/>
@@ -12776,17 +12776,17 @@
       <c r="K70" s="2"/>
     </row>
     <row r="71" spans="11:19" x14ac:dyDescent="0.2">
-      <c r="K71" s="4">
+      <c r="K71" s="5">
         <v>0.9</v>
       </c>
-      <c r="L71" s="5"/>
-      <c r="M71" s="5"/>
-      <c r="N71" s="5"/>
-      <c r="O71" s="5"/>
-      <c r="P71" s="5"/>
-      <c r="Q71" s="5"/>
-      <c r="R71" s="5"/>
-      <c r="S71" s="5"/>
+      <c r="L71" s="4"/>
+      <c r="M71" s="4"/>
+      <c r="N71" s="4"/>
+      <c r="O71" s="4"/>
+      <c r="P71" s="4"/>
+      <c r="Q71" s="4"/>
+      <c r="R71" s="4"/>
+      <c r="S71" s="4"/>
     </row>
     <row r="72" spans="11:19" x14ac:dyDescent="0.2">
       <c r="K72" s="1"/>
@@ -12979,17 +12979,17 @@
       <c r="K84" s="2"/>
     </row>
     <row r="85" spans="11:19" x14ac:dyDescent="0.2">
-      <c r="K85" s="4">
+      <c r="K85" s="5">
         <v>1</v>
       </c>
-      <c r="L85" s="5"/>
-      <c r="M85" s="5"/>
-      <c r="N85" s="5"/>
-      <c r="O85" s="5"/>
-      <c r="P85" s="5"/>
-      <c r="Q85" s="5"/>
-      <c r="R85" s="5"/>
-      <c r="S85" s="5"/>
+      <c r="L85" s="4"/>
+      <c r="M85" s="4"/>
+      <c r="N85" s="4"/>
+      <c r="O85" s="4"/>
+      <c r="P85" s="4"/>
+      <c r="Q85" s="4"/>
+      <c r="R85" s="4"/>
+      <c r="S85" s="4"/>
     </row>
     <row r="86" spans="11:19" x14ac:dyDescent="0.2">
       <c r="K86" s="1"/>
@@ -13165,11 +13165,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A12:I12"/>
-    <mergeCell ref="A23:I23"/>
-    <mergeCell ref="A34:I34"/>
-    <mergeCell ref="A45:I45"/>
     <mergeCell ref="K57:S57"/>
     <mergeCell ref="K71:S71"/>
     <mergeCell ref="K85:S85"/>
@@ -13177,6 +13172,11 @@
     <mergeCell ref="K15:S15"/>
     <mergeCell ref="K29:S29"/>
     <mergeCell ref="K43:S43"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A12:I12"/>
+    <mergeCell ref="A23:I23"/>
+    <mergeCell ref="A34:I34"/>
+    <mergeCell ref="A45:I45"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
